--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1019.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1019.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167545163571413</v>
+        <v>1.478023052215576</v>
       </c>
       <c r="B1">
-        <v>3.455067836371025</v>
+        <v>1.971718192100525</v>
       </c>
       <c r="C1">
-        <v>3.574961805759017</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.144253879236702</v>
+        <v>1.601622700691223</v>
       </c>
       <c r="E1">
-        <v>1.046995950073183</v>
+        <v>0.6748588085174561</v>
       </c>
     </row>
   </sheetData>
